--- a/resource/excel/Server.xlsx
+++ b/resource/excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690"/>
+    <workbookView windowWidth="26136" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
   <si>
     <t>Id</t>
   </si>
@@ -122,6 +122,9 @@
   </si>
   <si>
     <t>1</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
   </si>
   <si>
     <t>192.168.150.100</t>
@@ -1391,22 +1394,22 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
-    <col min="2" max="2" width="19.5583333333333" customWidth="1"/>
+    <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="15.1583333333333" customWidth="1"/>
-    <col min="5" max="5" width="24.5583333333333" customWidth="1"/>
-    <col min="6" max="6" width="23.65" customWidth="1"/>
-    <col min="7" max="7" width="13.075" customWidth="1"/>
-    <col min="8" max="8" width="20.8833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.7" customWidth="1"/>
-    <col min="11" max="11" width="11.9" customWidth="1"/>
-    <col min="12" max="12" width="13.5916666666667" customWidth="1"/>
+    <col min="4" max="4" width="15.1574074074074" customWidth="1"/>
+    <col min="5" max="5" width="24.5555555555556" customWidth="1"/>
+    <col min="6" max="6" width="23.6481481481481" customWidth="1"/>
+    <col min="7" max="7" width="13.0740740740741" customWidth="1"/>
+    <col min="8" max="8" width="20.8796296296296" customWidth="1"/>
+    <col min="10" max="10" width="10.7037037037037" customWidth="1"/>
+    <col min="11" max="11" width="11.8981481481481" customWidth="1"/>
+    <col min="12" max="12" width="13.5925925925926" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1779,7 +1782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30.75" spans="1:13">
+    <row r="10" ht="28.35" spans="1:13">
       <c r="A10" s="7" t="s">
         <v>22</v>
       </c>
@@ -1835,7 +1838,7 @@
         <v>36</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G11" s="13">
         <v>10001</v>
@@ -1856,15 +1859,15 @@
         <v>0</v>
       </c>
       <c r="M11" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C12" s="13">
         <v>5000</v>
@@ -1876,13 +1879,13 @@
         <v>36</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G12" s="17">
         <v>10010</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I12" s="13">
         <v>1</v>
@@ -1897,15 +1900,15 @@
         <v>0</v>
       </c>
       <c r="M12" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C13" s="13">
         <v>5000</v>
@@ -1917,13 +1920,13 @@
         <v>36</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G13" s="13">
         <v>10101</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I13" s="13">
         <v>1</v>
@@ -1938,15 +1941,15 @@
         <v>0</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C14" s="13">
         <v>5000</v>
@@ -1958,13 +1961,13 @@
         <v>36</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G14" s="17">
         <v>10301</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I14" s="13">
         <v>1</v>
@@ -1979,15 +1982,15 @@
         <v>0</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13">
         <v>5000</v>
@@ -1999,13 +2002,13 @@
         <v>36</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G15" s="13">
         <v>10531</v>
       </c>
       <c r="H15" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I15" s="13">
         <v>1</v>
@@ -2020,15 +2023,15 @@
         <v>10504</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C16" s="13">
         <v>5000</v>
@@ -2040,13 +2043,13 @@
         <v>36</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G16" s="13">
         <v>10505</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I16" s="13">
         <v>1</v>
@@ -2061,12 +2064,12 @@
         <v>10508</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B17" s="13">
         <v>1000</v>
@@ -2081,13 +2084,13 @@
         <v>36</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G17" s="13">
         <v>11000</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I17" s="13">
         <v>1</v>
@@ -2102,12 +2105,12 @@
         <v>0</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B18" s="13">
         <v>1001</v>
@@ -2122,13 +2125,13 @@
         <v>36</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G18" s="13">
         <v>11001</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I18" s="13">
         <v>1</v>
@@ -2143,12 +2146,12 @@
         <v>0</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B19" s="13">
         <v>2000</v>
@@ -2163,7 +2166,7 @@
         <v>36</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G19" s="13">
         <v>12000</v>
@@ -2184,12 +2187,12 @@
         <v>0</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B20" s="13">
         <v>2001</v>
@@ -2204,7 +2207,7 @@
         <v>36</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G20" s="13">
         <v>12001</v>
@@ -2225,12 +2228,12 @@
         <v>0</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21">
         <v>3000</v>
@@ -2245,7 +2248,7 @@
         <v>36</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G21">
         <v>13000</v>
@@ -2266,12 +2269,12 @@
         <v>0</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22">
         <v>3001</v>
@@ -2286,7 +2289,7 @@
         <v>36</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G22">
         <v>13002</v>
@@ -2307,12 +2310,12 @@
         <v>0</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="13" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" s="13">
         <v>4001</v>
@@ -2327,7 +2330,7 @@
         <v>36</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G23" s="13">
         <v>14000</v>
@@ -2348,7 +2351,7 @@
         <v>0</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/resource/excel/Server.xlsx
+++ b/resource/excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26136" windowHeight="16260"/>
+    <workbookView windowWidth="22823" windowHeight="15215"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -145,46 +145,46 @@
     <t>100</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>DbProxyServer_1</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>ProxyServer_1</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
-    <t>DbProxyServer_1</t>
-  </si>
-  <si>
-    <t>300</t>
+    <t>ProxyServer_2</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>LobbyServer_1</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>ProxyServer_1</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>ProxyServer_2</t>
-  </si>
-  <si>
-    <t>501</t>
-  </si>
-  <si>
-    <t>LobbyServer_1</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>LobbyServer_2</t>
   </si>
   <si>
-    <t>GameplayManagerServer_1</t>
-  </si>
-  <si>
-    <t>GameplayManagerServer_2</t>
+    <t>Game_Mgr_1</t>
+  </si>
+  <si>
+    <t>Game_Mgr_2</t>
   </si>
   <si>
     <t>CdnServer_1</t>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2254,7 +2254,7 @@
         <v>13000</v>
       </c>
       <c r="H21">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I21" s="13">
         <v>1</v>
@@ -2295,7 +2295,7 @@
         <v>13002</v>
       </c>
       <c r="H22">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I22" s="13">
         <v>1</v>
@@ -2336,7 +2336,7 @@
         <v>14000</v>
       </c>
       <c r="H23" s="13">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I23" s="13">
         <v>1</v>

--- a/resource/excel/Server.xlsx
+++ b/resource/excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22823" windowHeight="15215"/>
+    <workbookView windowWidth="25920" windowHeight="16260"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
   <si>
     <t>Id</t>
   </si>
@@ -43,6 +43,9 @@
     <t>Area</t>
   </si>
   <si>
+    <t>AreaName</t>
+  </si>
+  <si>
     <t>WebPort</t>
   </si>
   <si>
@@ -106,6 +109,9 @@
     <t>server type ref squick/core/base.h</t>
   </si>
   <si>
+    <t>区服</t>
+  </si>
+  <si>
     <t>http port</t>
   </si>
   <si>
@@ -118,7 +124,7 @@
     <t>server connect auth key</t>
   </si>
   <si>
-    <t>MasterServer_1</t>
+    <t>Master_1</t>
   </si>
   <si>
     <t>1</t>
@@ -133,13 +139,13 @@
     <t>server_wrold_key</t>
   </si>
   <si>
-    <t>LoginServer_1</t>
+    <t>Login_1</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>WorldServer_1</t>
+    <t>World_1</t>
   </si>
   <si>
     <t>100</t>
@@ -148,7 +154,19 @@
     <t>3</t>
   </si>
   <si>
-    <t>DbProxyServer_1</t>
+    <t>黑色玫瑰</t>
+  </si>
+  <si>
+    <t>World_2</t>
+  </si>
+  <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>一手遮天</t>
+  </si>
+  <si>
+    <t>DbProxy_1_1</t>
   </si>
   <si>
     <t>300</t>
@@ -157,7 +175,13 @@
     <t>4</t>
   </si>
   <si>
-    <t>ProxyServer_1</t>
+    <t>DbProxy_2_1</t>
+  </si>
+  <si>
+    <t>301</t>
+  </si>
+  <si>
+    <t>Proxy_1_1</t>
   </si>
   <si>
     <t>500</t>
@@ -166,19 +190,28 @@
     <t>5</t>
   </si>
   <si>
-    <t>ProxyServer_2</t>
+    <t>Proxy_1_2</t>
   </si>
   <si>
     <t>501</t>
   </si>
   <si>
-    <t>LobbyServer_1</t>
+    <t>Proxy_2_1</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>Lobby_1</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>LobbyServer_2</t>
+    <t>Lobby_2</t>
+  </si>
+  <si>
+    <t>Lobby_2_1</t>
   </si>
   <si>
     <t>Game_Mgr_1</t>
@@ -999,7 +1032,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1061,6 +1094,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,29 +1427,31 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M23"/>
+  <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="24.6666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.5555555555556" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="3" max="3" width="25.6111111111111" customWidth="1"/>
     <col min="4" max="4" width="15.1574074074074" customWidth="1"/>
     <col min="5" max="5" width="24.5555555555556" customWidth="1"/>
     <col min="6" max="6" width="23.6481481481481" customWidth="1"/>
     <col min="7" max="7" width="13.0740740740741" customWidth="1"/>
     <col min="8" max="8" width="20.8796296296296" customWidth="1"/>
-    <col min="10" max="10" width="10.7037037037037" customWidth="1"/>
+    <col min="9" max="9" width="17.25" customWidth="1"/>
+    <col min="10" max="10" width="25.3611111111111" customWidth="1"/>
     <col min="11" max="11" width="11.8981481481481" customWidth="1"/>
     <col min="12" max="12" width="13.5925925925926" customWidth="1"/>
     <col min="13" max="13" width="23" customWidth="1"/>
+    <col min="14" max="14" width="31.2407407407407" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1453,51 +1491,57 @@
       <c r="M1" s="18" t="s">
         <v>12</v>
       </c>
+      <c r="N1" s="18" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:14">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
       <c r="I2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="K2" s="19" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="L2" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="5" t="s">
         <v>14</v>
       </c>
+      <c r="M2" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:14">
       <c r="A3" s="4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B3" s="5">
         <v>0</v>
@@ -1523,10 +1567,10 @@
       <c r="I3" s="5">
         <v>0</v>
       </c>
-      <c r="J3" s="5">
-        <v>0</v>
-      </c>
-      <c r="K3" s="19">
+      <c r="J3" s="19">
+        <v>0</v>
+      </c>
+      <c r="K3" s="5">
         <v>0</v>
       </c>
       <c r="L3" s="19">
@@ -1535,10 +1579,13 @@
       <c r="M3" s="19">
         <v>0</v>
       </c>
+      <c r="N3" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:14">
       <c r="A4" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5">
         <v>0</v>
@@ -1564,10 +1611,10 @@
       <c r="I4" s="5">
         <v>0</v>
       </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="19">
+      <c r="J4" s="19">
+        <v>0</v>
+      </c>
+      <c r="K4" s="5">
         <v>0</v>
       </c>
       <c r="L4" s="19">
@@ -1576,10 +1623,13 @@
       <c r="M4" s="19">
         <v>0</v>
       </c>
+      <c r="N4" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:14">
       <c r="A5" s="4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5">
         <v>0</v>
@@ -1605,10 +1655,10 @@
       <c r="I5" s="5">
         <v>0</v>
       </c>
-      <c r="J5" s="5">
-        <v>0</v>
-      </c>
-      <c r="K5" s="19">
+      <c r="J5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="5">
         <v>0</v>
       </c>
       <c r="L5" s="19">
@@ -1617,10 +1667,13 @@
       <c r="M5" s="19">
         <v>0</v>
       </c>
+      <c r="N5" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:14">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B6" s="5">
         <v>0</v>
@@ -1646,10 +1699,10 @@
       <c r="I6" s="5">
         <v>0</v>
       </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="19">
+      <c r="J6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
         <v>0</v>
       </c>
       <c r="L6" s="19">
@@ -1658,10 +1711,13 @@
       <c r="M6" s="19">
         <v>0</v>
       </c>
+      <c r="N6" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:14">
       <c r="A7" s="6" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B7" s="5">
         <v>0</v>
@@ -1687,10 +1743,10 @@
       <c r="I7" s="5">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
-        <v>0</v>
-      </c>
-      <c r="K7" s="19">
+      <c r="J7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="5">
         <v>0</v>
       </c>
       <c r="L7" s="19">
@@ -1699,10 +1755,13 @@
       <c r="M7" s="19">
         <v>0</v>
       </c>
+      <c r="N7" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:14">
       <c r="A8" s="6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5">
         <v>0</v>
@@ -1728,10 +1787,10 @@
       <c r="I8" s="5">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
-        <v>0</v>
-      </c>
-      <c r="K8" s="19">
+      <c r="J8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="5">
         <v>0</v>
       </c>
       <c r="L8" s="19">
@@ -1740,10 +1799,13 @@
       <c r="M8" s="19">
         <v>0</v>
       </c>
+      <c r="N8" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:14">
       <c r="A9" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5">
         <v>0</v>
@@ -1769,10 +1831,10 @@
       <c r="I9" s="5">
         <v>0</v>
       </c>
-      <c r="J9" s="5">
-        <v>0</v>
-      </c>
-      <c r="K9" s="19">
+      <c r="J9" s="19">
+        <v>0</v>
+      </c>
+      <c r="K9" s="5">
         <v>0</v>
       </c>
       <c r="L9" s="19">
@@ -1781,52 +1843,58 @@
       <c r="M9" s="19">
         <v>0</v>
       </c>
+      <c r="N9" s="19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="10" ht="28.35" spans="1:13">
+    <row r="10" ht="28.35" spans="1:14">
       <c r="A10" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I10" s="20"/>
       <c r="J10" s="21" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K10" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="M10" s="22" t="s">
+      <c r="L10" s="23" t="s">
         <v>33</v>
       </c>
+      <c r="M10" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="N10" s="23" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:14">
       <c r="A11" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C11" s="13">
         <v>5000</v>
@@ -1835,39 +1903,40 @@
         <v>1</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G11" s="13">
         <v>10001</v>
       </c>
       <c r="H11" s="12" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="I11" s="13">
-        <v>1</v>
-      </c>
-      <c r="J11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13">
         <v>10002</v>
       </c>
-      <c r="K11" s="23">
-        <v>0</v>
-      </c>
-      <c r="L11" s="23">
-        <v>0</v>
-      </c>
-      <c r="M11" s="13" t="s">
-        <v>38</v>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B12" s="16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C12" s="13">
         <v>5000</v>
@@ -1876,39 +1945,40 @@
         <v>1</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G12" s="17">
         <v>10010</v>
       </c>
       <c r="H12" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13">
+        <v>10088</v>
+      </c>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" s="13">
-        <v>10088</v>
-      </c>
-      <c r="K12" s="23">
-        <v>0</v>
-      </c>
-      <c r="L12" s="23">
-        <v>0</v>
-      </c>
-      <c r="M12" s="13" t="s">
-        <v>38</v>
-      </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:14">
       <c r="A13" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" s="13">
         <v>5000</v>
@@ -1917,39 +1987,42 @@
         <v>1</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G13" s="13">
         <v>10101</v>
       </c>
       <c r="H13" s="12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I13" s="13">
         <v>1</v>
       </c>
-      <c r="J13" s="13">
-        <v>0</v>
-      </c>
-      <c r="K13" s="23">
-        <v>0</v>
-      </c>
-      <c r="L13" s="23">
-        <v>0</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>38</v>
+      <c r="J13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" s="13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>45</v>
+    <row r="14" spans="1:14">
+      <c r="A14" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="12" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="13">
         <v>5000</v>
@@ -1958,39 +2031,42 @@
         <v>1</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="17">
-        <v>10301</v>
-      </c>
-      <c r="H14" s="16" t="s">
-        <v>46</v>
+        <v>39</v>
+      </c>
+      <c r="G14" s="13">
+        <v>10102</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>45</v>
       </c>
       <c r="I14" s="13">
-        <v>1</v>
-      </c>
-      <c r="J14" s="13">
-        <v>0</v>
-      </c>
-      <c r="K14" s="23">
-        <v>0</v>
-      </c>
-      <c r="L14" s="23">
-        <v>0</v>
-      </c>
-      <c r="M14" s="13" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="13">
+        <v>0</v>
+      </c>
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>48</v>
+    <row r="15" spans="1:14">
+      <c r="A15" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="C15" s="13">
         <v>5000</v>
@@ -1999,39 +2075,40 @@
         <v>1</v>
       </c>
       <c r="E15" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="13">
-        <v>10531</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>49</v>
+        <v>39</v>
+      </c>
+      <c r="G15" s="17">
+        <v>10301</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="I15" s="13">
         <v>1</v>
       </c>
-      <c r="J15" s="13">
-        <v>10502</v>
-      </c>
+      <c r="J15" s="13"/>
       <c r="K15" s="13">
-        <v>10503</v>
-      </c>
-      <c r="L15" s="23">
-        <v>10504</v>
-      </c>
-      <c r="M15" s="13" t="s">
-        <v>38</v>
+        <v>0</v>
+      </c>
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
-      <c r="A16" s="11" t="s">
-        <v>50</v>
+    <row r="16" spans="1:14">
+      <c r="A16" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C16" s="13">
         <v>5000</v>
@@ -2040,39 +2117,40 @@
         <v>1</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="13">
-        <v>10505</v>
+        <v>39</v>
+      </c>
+      <c r="G16" s="17">
+        <v>10302</v>
       </c>
       <c r="H16" s="12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I16" s="13">
-        <v>1</v>
-      </c>
-      <c r="J16" s="13">
-        <v>10506</v>
-      </c>
-      <c r="K16" s="23">
-        <v>10507</v>
-      </c>
-      <c r="L16" s="23">
-        <v>10508</v>
-      </c>
-      <c r="M16" s="13" t="s">
-        <v>38</v>
+        <v>2</v>
+      </c>
+      <c r="J16" s="13"/>
+      <c r="K16" s="13">
+        <v>0</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:14">
       <c r="A17" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="B17" s="13">
-        <v>1000</v>
+        <v>55</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="C17" s="13">
         <v>5000</v>
@@ -2081,39 +2159,40 @@
         <v>1</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G17" s="13">
-        <v>11000</v>
+        <v>10531</v>
       </c>
       <c r="H17" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I17" s="13">
         <v>1</v>
       </c>
-      <c r="J17" s="13">
-        <v>0</v>
-      </c>
-      <c r="K17" s="23">
-        <v>0</v>
-      </c>
-      <c r="L17" s="23">
-        <v>0</v>
-      </c>
-      <c r="M17" s="13" t="s">
-        <v>38</v>
+      <c r="J17" s="13"/>
+      <c r="K17" s="13">
+        <v>10502</v>
+      </c>
+      <c r="L17" s="13">
+        <v>10503</v>
+      </c>
+      <c r="M17" s="24">
+        <v>10504</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:14">
       <c r="A18" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B18" s="13">
-        <v>1001</v>
+        <v>58</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>59</v>
       </c>
       <c r="C18" s="13">
         <v>5000</v>
@@ -2122,39 +2201,40 @@
         <v>1</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G18" s="13">
-        <v>11001</v>
+        <v>10505</v>
       </c>
       <c r="H18" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="I18" s="13">
         <v>1</v>
       </c>
-      <c r="J18" s="13">
-        <v>0</v>
-      </c>
-      <c r="K18" s="23">
-        <v>0</v>
-      </c>
-      <c r="L18" s="23">
-        <v>0</v>
-      </c>
-      <c r="M18" s="13" t="s">
-        <v>38</v>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13">
+        <v>10506</v>
+      </c>
+      <c r="L18" s="24">
+        <v>10507</v>
+      </c>
+      <c r="M18" s="24">
+        <v>10508</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
-      <c r="A19" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B19" s="13">
-        <v>2000</v>
+    <row r="19" spans="1:14">
+      <c r="A19" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="B19" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="13">
         <v>5000</v>
@@ -2163,80 +2243,82 @@
         <v>1</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G19" s="13">
-        <v>12000</v>
-      </c>
-      <c r="H19" s="13">
-        <v>7</v>
+        <v>10506</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>57</v>
       </c>
       <c r="I19" s="13">
-        <v>1</v>
-      </c>
-      <c r="J19" s="13">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J19" s="13"/>
       <c r="K19" s="13">
-        <v>0</v>
-      </c>
-      <c r="L19" s="13">
-        <v>0</v>
-      </c>
-      <c r="M19" s="13" t="s">
-        <v>38</v>
+        <v>10509</v>
+      </c>
+      <c r="L19" s="24">
+        <v>10510</v>
+      </c>
+      <c r="M19" s="24">
+        <v>10511</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
-      <c r="A20" s="13" t="s">
-        <v>56</v>
+    <row r="20" spans="1:14">
+      <c r="A20" s="11" t="s">
+        <v>62</v>
       </c>
       <c r="B20" s="13">
-        <v>2001</v>
+        <v>1000</v>
       </c>
       <c r="C20" s="13">
         <v>5000</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="13">
         <v>1</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G20" s="13">
-        <v>12001</v>
-      </c>
-      <c r="H20">
-        <v>7</v>
-      </c>
-      <c r="I20">
-        <v>1</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="13" t="s">
-        <v>38</v>
+        <v>11000</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="I20" s="13">
+        <v>1</v>
+      </c>
+      <c r="J20" s="13"/>
+      <c r="K20" s="13">
+        <v>0</v>
+      </c>
+      <c r="L20" s="24">
+        <v>0</v>
+      </c>
+      <c r="M20" s="24">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
-      <c r="A21" t="s">
-        <v>57</v>
-      </c>
-      <c r="B21">
-        <v>3000</v>
+    <row r="21" spans="1:14">
+      <c r="A21" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="13">
+        <v>1001</v>
       </c>
       <c r="C21" s="13">
         <v>5000</v>
@@ -2245,39 +2327,40 @@
         <v>1</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G21">
-        <v>13000</v>
-      </c>
-      <c r="H21">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="G21" s="13">
+        <v>11001</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="I21" s="13">
         <v>1</v>
       </c>
-      <c r="J21">
-        <v>13001</v>
-      </c>
+      <c r="J21" s="13"/>
       <c r="K21" s="13">
         <v>0</v>
       </c>
-      <c r="L21" s="13">
-        <v>0</v>
-      </c>
-      <c r="M21" s="13" t="s">
-        <v>38</v>
+      <c r="L21" s="24">
+        <v>0</v>
+      </c>
+      <c r="M21" s="24">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
-      <c r="A22" t="s">
-        <v>58</v>
-      </c>
-      <c r="B22">
-        <v>3001</v>
+    <row r="22" spans="1:14">
+      <c r="A22" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="13">
+        <v>1002</v>
       </c>
       <c r="C22" s="13">
         <v>5000</v>
@@ -2286,39 +2369,40 @@
         <v>1</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="G22">
-        <v>13002</v>
-      </c>
-      <c r="H22">
-        <v>10</v>
+        <v>39</v>
+      </c>
+      <c r="G22" s="13">
+        <v>11002</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>63</v>
       </c>
       <c r="I22" s="13">
-        <v>1</v>
-      </c>
-      <c r="J22">
-        <v>13003</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="J22" s="13"/>
       <c r="K22" s="13">
         <v>0</v>
       </c>
       <c r="L22" s="13">
         <v>0</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>38</v>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:14">
       <c r="A23" s="13" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="B23" s="13">
-        <v>4001</v>
+        <v>2000</v>
       </c>
       <c r="C23" s="13">
         <v>5000</v>
@@ -2327,31 +2411,200 @@
         <v>1</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G23" s="13">
+        <v>12000</v>
+      </c>
+      <c r="H23" s="13">
+        <v>7</v>
+      </c>
+      <c r="I23" s="13">
+        <v>1</v>
+      </c>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13">
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
+      <c r="A24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="13">
+        <v>2001</v>
+      </c>
+      <c r="C24" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G24" s="13">
+        <v>12001</v>
+      </c>
+      <c r="H24">
+        <v>7</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24" s="13"/>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>3000</v>
+      </c>
+      <c r="C25" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D25" s="13">
+        <v>1</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G25">
+        <v>13000</v>
+      </c>
+      <c r="H25">
+        <v>10</v>
+      </c>
+      <c r="I25" s="13">
+        <v>1</v>
+      </c>
+      <c r="J25" s="13"/>
+      <c r="K25">
+        <v>13001</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14">
+      <c r="A26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26">
+        <v>3001</v>
+      </c>
+      <c r="C26" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D26" s="13">
+        <v>1</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26">
+        <v>13002</v>
+      </c>
+      <c r="H26">
+        <v>10</v>
+      </c>
+      <c r="I26" s="13">
+        <v>1</v>
+      </c>
+      <c r="J26" s="13"/>
+      <c r="K26">
+        <v>13003</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14">
+      <c r="A27" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="13">
+        <v>4001</v>
+      </c>
+      <c r="C27" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D27" s="13">
+        <v>1</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" s="13">
         <v>14000</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H27" s="13">
         <v>11</v>
       </c>
-      <c r="I23" s="13">
-        <v>1</v>
-      </c>
-      <c r="J23" s="13">
-        <v>0</v>
-      </c>
-      <c r="K23" s="13">
-        <v>0</v>
-      </c>
-      <c r="L23" s="13">
-        <v>0</v>
-      </c>
-      <c r="M23" s="13" t="s">
-        <v>38</v>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27" s="13">
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/resource/excel/Server.xlsx
+++ b/resource/excel/Server.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25920" windowHeight="16260"/>
+    <workbookView windowWidth="24228" windowHeight="11808"/>
   </bookViews>
   <sheets>
     <sheet name="property" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="74">
   <si>
     <t>Id</t>
   </si>
@@ -145,7 +145,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>World_1</t>
+    <t>World_1_1</t>
   </si>
   <si>
     <t>100</t>
@@ -157,7 +157,7 @@
     <t>黑色玫瑰</t>
   </si>
   <si>
-    <t>World_2</t>
+    <t>World_2_1</t>
   </si>
   <si>
     <t>101</t>
@@ -202,31 +202,40 @@
     <t>502</t>
   </si>
   <si>
-    <t>Lobby_1</t>
+    <t>Lobby_1_1</t>
   </si>
   <si>
     <t>6</t>
   </si>
   <si>
-    <t>Lobby_2</t>
+    <t>Lobby_1_2</t>
   </si>
   <si>
     <t>Lobby_2_1</t>
   </si>
   <si>
-    <t>Game_Mgr_1</t>
-  </si>
-  <si>
-    <t>Game_Mgr_2</t>
-  </si>
-  <si>
-    <t>CdnServer_1</t>
-  </si>
-  <si>
-    <t>CdnServer_2</t>
-  </si>
-  <si>
-    <t>RobotServer_1</t>
+    <t>Game_Mgr_1_1</t>
+  </si>
+  <si>
+    <t>Game_Mgr_2_1</t>
+  </si>
+  <si>
+    <t>Game_1_1</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Game_2_1</t>
+  </si>
+  <si>
+    <t>CdnServer_1_1</t>
+  </si>
+  <si>
+    <t>CdnServer_2_1</t>
+  </si>
+  <si>
+    <t>RobotServer_1_1</t>
   </si>
 </sst>
 </file>
@@ -1427,10 +1436,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N27"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
@@ -2417,7 +2426,7 @@
         <v>39</v>
       </c>
       <c r="G23" s="13">
-        <v>12000</v>
+        <v>32000</v>
       </c>
       <c r="H23" s="13">
         <v>7</v>
@@ -2459,7 +2468,7 @@
         <v>39</v>
       </c>
       <c r="G24" s="13">
-        <v>12001</v>
+        <v>32001</v>
       </c>
       <c r="H24">
         <v>7</v>
@@ -2482,10 +2491,10 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" t="s">
+      <c r="A25" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="13">
         <v>3000</v>
       </c>
       <c r="C25" s="13">
@@ -2500,23 +2509,23 @@
       <c r="F25" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G25">
+      <c r="G25" s="13">
         <v>13000</v>
       </c>
-      <c r="H25">
-        <v>10</v>
+      <c r="H25" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="I25" s="13">
         <v>1</v>
       </c>
       <c r="J25" s="13"/>
-      <c r="K25">
-        <v>13001</v>
-      </c>
-      <c r="L25" s="13">
-        <v>0</v>
-      </c>
-      <c r="M25" s="13">
+      <c r="K25" s="13">
+        <v>0</v>
+      </c>
+      <c r="L25" s="24">
+        <v>0</v>
+      </c>
+      <c r="M25" s="24">
         <v>0</v>
       </c>
       <c r="N25" s="13" t="s">
@@ -2524,10 +2533,10 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B26">
+      <c r="A26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="13">
         <v>3001</v>
       </c>
       <c r="C26" s="13">
@@ -2542,18 +2551,18 @@
       <c r="F26" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G26">
-        <v>13002</v>
-      </c>
-      <c r="H26">
-        <v>10</v>
+      <c r="G26" s="13">
+        <v>13001</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>69</v>
       </c>
       <c r="I26" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" s="13"/>
-      <c r="K26">
-        <v>13003</v>
+      <c r="K26" s="13">
+        <v>0</v>
       </c>
       <c r="L26" s="13">
         <v>0</v>
@@ -2566,11 +2575,11 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="B27" s="13">
-        <v>4001</v>
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>5000</v>
       </c>
       <c r="C27" s="13">
         <v>5000</v>
@@ -2584,26 +2593,110 @@
       <c r="F27" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="G27" s="13">
-        <v>14000</v>
-      </c>
-      <c r="H27" s="13">
+      <c r="G27">
+        <v>15000</v>
+      </c>
+      <c r="H27">
+        <v>10</v>
+      </c>
+      <c r="I27" s="13">
+        <v>1</v>
+      </c>
+      <c r="J27" s="13"/>
+      <c r="K27">
+        <v>13001</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14">
+      <c r="A28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28">
+        <v>5001</v>
+      </c>
+      <c r="C28" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D28" s="13">
+        <v>1</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G28">
+        <v>15002</v>
+      </c>
+      <c r="H28">
+        <v>10</v>
+      </c>
+      <c r="I28" s="13">
+        <v>1</v>
+      </c>
+      <c r="J28" s="13"/>
+      <c r="K28">
+        <v>13003</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
+        <v>0</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14">
+      <c r="A29" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B29" s="13">
+        <v>6000</v>
+      </c>
+      <c r="C29" s="13">
+        <v>5000</v>
+      </c>
+      <c r="D29" s="13">
+        <v>1</v>
+      </c>
+      <c r="E29" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G29" s="13">
+        <v>16000</v>
+      </c>
+      <c r="H29" s="13">
         <v>11</v>
       </c>
-      <c r="I27" s="13">
-        <v>1</v>
-      </c>
-      <c r="J27" s="13"/>
-      <c r="K27" s="13">
-        <v>0</v>
-      </c>
-      <c r="L27" s="13">
-        <v>0</v>
-      </c>
-      <c r="M27" s="13">
-        <v>0</v>
-      </c>
-      <c r="N27" s="13" t="s">
+      <c r="I29" s="13">
+        <v>1</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="13">
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13" t="s">
         <v>40</v>
       </c>
     </row>
